--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="3315" windowWidth="14895" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="4" r:id="rId3"/>
+    <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Work Level</t>
   </si>
@@ -83,6 +84,23 @@
   </si>
   <si>
     <t xml:space="preserve">Deleted </t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT  M.[WorkLevel] as 'Work Level',
+  M.[WorkCodeName] as 'Name',
+  Isnull(C.[WorkCodeName],'')  as 'Parent'
+  ,M.[LastChangedBy] as 'Last Changed By',
+  Substring(M.[LastChangedOn],11,18) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[GBL_CallWorkCodeMapping] M left join [Product_OCM].[dbo].[GBL_CallWorkCodeMapping] c on c.WorkCode=m.ParentID</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Debit Card Updated</t>
   </si>
 </sst>
 </file>
@@ -118,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,6 +532,29 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -521,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +580,7 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,6 +645,35 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -611,14 +684,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
@@ -645,6 +719,50 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="5595" yWindow="3990" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:I15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Work Level</t>
   </si>
@@ -89,18 +89,26 @@
     <t>Query</t>
   </si>
   <si>
-    <t>SELECT  M.[WorkLevel] as 'Work Level',
-  M.[WorkCodeName] as 'Name',
-  Isnull(C.[WorkCodeName],'')  as 'Parent'
-  ,M.[LastChangedBy] as 'Last Changed By',
-  Substring(M.[LastChangedOn],11,18) as 'Last Changed On'
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Debit Card Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT  M.WorkLevel as 'Work Level',M.WorkCodeName as 'Name', Isnull(C.WorkCodeName,'')  as 'Parent',M.LastChangedBy as 'Last Changed By', Substring(M.LastChangedOn,11,18) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[GBL_CallWorkCodeMapping] M left join [Product_OCM].[dbo].[GBL_CallWorkCodeMapping] c on c.WorkCode=m.ParentID</t>
   </si>
   <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
-    <t>Debit Card Updated</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Call Centre</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
   </si>
 </sst>
 </file>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +468,7 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,12 +494,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -535,12 +546,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -556,6 +570,14 @@
       </c>
       <c r="H4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -565,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,12 +601,12 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,13 +632,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -642,18 +667,21 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -670,10 +698,21 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -721,10 +760,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -737,10 +776,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,16 +792,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3990" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="485595" yWindow="480840" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I15"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="485595" yWindow="480840" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:I15"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I15"/>
+  <oleSize ref="A1:I11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Work Level</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Updated Name</t>
-  </si>
-  <si>
-    <t>NEFT</t>
   </si>
   <si>
     <t>Modify Reason</t>
@@ -109,6 +106,37 @@
   </si>
   <si>
     <t>Automation Test</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Select WorkCode
+  from [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]
+  where WorkCodeName='test 2';</t>
+  </si>
+  <si>
+    <t>test 23</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>Select WorkCode, TeamID
+  from [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]
+  where WorkCodeName='HR2';</t>
   </si>
 </sst>
 </file>
@@ -144,10 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,9 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -502,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -525,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -551,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -577,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -587,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L2" activeCellId="1" sqref="L1:L2 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +633,10 @@
     <col min="8" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,10 +668,13 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -667,21 +700,24 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -699,21 +735,21 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,9 +770,10 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -744,29 +781,35 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +819,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,12 +832,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I11"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Work Level</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Delete Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleted </t>
   </si>
   <si>
     <t>Query</t>
@@ -100,12 +97,6 @@
   </si>
   <si>
     <t>Call Centre</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Automation Test</t>
   </si>
   <si>
     <t>test 2</t>
@@ -137,6 +128,16 @@
     <t>Select WorkCode, TeamID
   from [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]
   where WorkCodeName='HR2';</t>
+  </si>
+  <si>
+    <t>Call Centre Updated</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Select WorkCodeName
+  FROM [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]</t>
   </si>
 </sst>
 </file>
@@ -483,7 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -531,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -554,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -580,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -606,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +622,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" activeCellId="1" sqref="L1:L2 L2"/>
+      <selection activeCell="I4" sqref="I4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,13 +703,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -717,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -735,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -743,10 +746,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -761,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,13 +792,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -803,13 +806,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,21 +835,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
 </file>
 
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -824,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Work Level</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>Call Centre</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>Select WorkCode
@@ -110,19 +104,10 @@
   where WorkCodeName='test 2';</t>
   </si>
   <si>
-    <t>test 23</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
     <t>delete</t>
-  </si>
-  <si>
-    <t>HR1</t>
-  </si>
-  <si>
-    <t>HR2</t>
   </si>
   <si>
     <t>Select WorkCode, TeamID
@@ -138,6 +123,24 @@
   <si>
     <t>Select WorkCodeName
   FROM [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Test Team</t>
+  </si>
+  <si>
+    <t>IMPS</t>
+  </si>
+  <si>
+    <t>NEFT</t>
   </si>
 </sst>
 </file>
@@ -484,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -540,16 +543,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -557,25 +560,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,7 +625,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:K4"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,25 +694,25 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -726,16 +729,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -749,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -765,7 +768,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,13 +795,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -809,10 +812,10 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
@@ -845,17 +848,17 @@
     </row>
     <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:I10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>Work Level</t>
   </si>
@@ -99,30 +99,16 @@
     <t>Call Centre</t>
   </si>
   <si>
-    <t>Select WorkCode
-  from [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]
-  where WorkCodeName='test 2';</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
     <t>delete</t>
   </si>
   <si>
-    <t>Select WorkCode, TeamID
-  from [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]
-  where WorkCodeName='HR2';</t>
-  </si>
-  <si>
     <t>Call Centre Updated</t>
   </si>
   <si>
     <t>Deleted</t>
-  </si>
-  <si>
-    <t>Select WorkCodeName
-  FROM [Product_OCM].[dbo].[GBL_CallWorkCodeMapping]</t>
   </si>
   <si>
     <t>NewZealand</t>
@@ -487,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -543,16 +529,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -569,16 +555,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,25 +680,25 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -729,16 +715,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -752,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -795,13 +781,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -812,10 +798,10 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -827,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,20 +832,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -89,44 +89,44 @@
     <t>Debit Card Updated</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Call Centre</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Call Centre Updated</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Test Team</t>
+  </si>
+  <si>
+    <t>IMPS</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
     <t xml:space="preserve"> SELECT  M.WorkLevel as 'Work Level',M.WorkCodeName as 'Name', Isnull(C.WorkCodeName,'')  as 'Parent',M.LastChangedBy as 'Last Changed By', Substring(M.LastChangedOn,11,18) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[GBL_CallWorkCodeMapping] M left join [Product_OCM].[dbo].[GBL_CallWorkCodeMapping] c on c.WorkCode=m.ParentID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Call Centre</t>
-  </si>
-  <si>
-    <t>modified</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>Call Centre Updated</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>NewZealand</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>IT Department</t>
-  </si>
-  <si>
-    <t>Test Team</t>
-  </si>
-  <si>
-    <t>IMPS</t>
-  </si>
-  <si>
-    <t>NEFT</t>
+  FROM [GBL_CallWorkCodeMapping] M left join [GBL_CallWorkCodeMapping] c on c.WorkCode=m.ParentID</t>
   </si>
 </sst>
 </file>
@@ -523,22 +523,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -555,16 +555,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -680,25 +680,25 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -715,16 +715,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -781,13 +781,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -795,13 +795,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +829,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Work Level</t>
   </si>
@@ -127,6 +131,12 @@
   <si>
     <t xml:space="preserve"> SELECT  M.WorkLevel as 'Work Level',M.WorkCodeName as 'Name', Isnull(C.WorkCodeName,'')  as 'Parent',M.LastChangedBy as 'Last Changed By', Substring(M.LastChangedOn,11,18) as 'Last Changed On'
   FROM [GBL_CallWorkCodeMapping] M left join [GBL_CallWorkCodeMapping] c on c.WorkCode=m.ParentID</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>santosh</t>
   </si>
 </sst>
 </file>
@@ -180,6 +190,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -227,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +612,16 @@
       </c>
       <c r="B5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,11 +13,12 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Work Level</t>
   </si>
@@ -484,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +498,7 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +523,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -553,8 +552,11 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -580,7 +582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -606,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -614,12 +616,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>37</v>
       </c>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
+  <oleSize ref="A1:P24"/>
 </workbook>
 </file>
 
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
+  <oleSize ref="A1:N24"/>
 </workbook>
 </file>
 
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N24"/>
+  <oleSize ref="A1:M24"/>
 </workbook>
 </file>
 
@@ -483,7 +483,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
+++ b/ocms/target/test-classes/TestData/WorkCodeListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14385" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M24"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
@@ -236,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
